--- a/www/IndicatorsPerCountry/Qatar_GDPperCapita_TerritorialRef_1971_2012_CCode_634.xlsx
+++ b/www/IndicatorsPerCountry/Qatar_GDPperCapita_TerritorialRef_1971_2012_CCode_634.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Qatar_GDPperCapita_TerritorialRef_1971_2012_CCode_634.xlsx
+++ b/www/IndicatorsPerCountry/Qatar_GDPperCapita_TerritorialRef_1971_2012_CCode_634.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>30387</t>
-  </si>
-  <si>
-    <t>30523</t>
-  </si>
-  <si>
-    <t>30107</t>
-  </si>
-  <si>
-    <t>30919</t>
-  </si>
-  <si>
-    <t>32302</t>
-  </si>
-  <si>
-    <t>31137</t>
-  </si>
-  <si>
-    <t>31762</t>
-  </si>
-  <si>
-    <t>31351</t>
-  </si>
-  <si>
-    <t>31394</t>
-  </si>
-  <si>
-    <t>32896</t>
-  </si>
-  <si>
-    <t>32810</t>
-  </si>
-  <si>
-    <t>30437</t>
-  </si>
-  <si>
-    <t>29049</t>
-  </si>
-  <si>
-    <t>28176</t>
-  </si>
-  <si>
-    <t>26466</t>
-  </si>
-  <si>
-    <t>25785</t>
-  </si>
-  <si>
-    <t>31782</t>
-  </si>
-  <si>
-    <t>34860</t>
-  </si>
-  <si>
-    <t>36393</t>
-  </si>
-  <si>
-    <t>35280</t>
-  </si>
-  <si>
-    <t>32573</t>
-  </si>
-  <si>
-    <t>37473</t>
-  </si>
-  <si>
-    <t>39157</t>
-  </si>
-  <si>
-    <t>42916</t>
-  </si>
-  <si>
-    <t>36132</t>
-  </si>
-  <si>
-    <t>34421</t>
-  </si>
-  <si>
-    <t>34611</t>
-  </si>
-  <si>
-    <t>28858</t>
-  </si>
-  <si>
-    <t>29531</t>
-  </si>
-  <si>
-    <t>28737</t>
-  </si>
-  <si>
-    <t>28771</t>
-  </si>
-  <si>
-    <t>23405</t>
-  </si>
-  <si>
-    <t>18222</t>
-  </si>
-  <si>
-    <t>14521</t>
-  </si>
-  <si>
-    <t>12769</t>
-  </si>
-  <si>
-    <t>10388</t>
-  </si>
-  <si>
-    <t>8081</t>
-  </si>
-  <si>
-    <t>8042</t>
-  </si>
-  <si>
-    <t>7837</t>
-  </si>
-  <si>
-    <t>7614</t>
-  </si>
-  <si>
-    <t>7343.15109946</t>
-  </si>
-  <si>
-    <t>6913.3532571</t>
-  </si>
-  <si>
-    <t>7236.64906103</t>
-  </si>
-  <si>
-    <t>6971.44132084</t>
-  </si>
-  <si>
-    <t>6885.08163546</t>
-  </si>
-  <si>
-    <t>6921.5888082</t>
-  </si>
-  <si>
-    <t>7233.06308307</t>
-  </si>
-  <si>
-    <t>8904.42989693</t>
-  </si>
-  <si>
-    <t>9194.70067376</t>
-  </si>
-  <si>
-    <t>9210.77485124</t>
-  </si>
-  <si>
-    <t>9724.11908485</t>
-  </si>
-  <si>
-    <t>9852.92628228</t>
-  </si>
-  <si>
-    <t>9706.37956991</t>
-  </si>
-  <si>
-    <t>9867.47926681</t>
-  </si>
-  <si>
-    <t>10352.4974108</t>
-  </si>
-  <si>
-    <t>9445.11927119</t>
-  </si>
-  <si>
-    <t>10348.7278689</t>
-  </si>
-  <si>
-    <t>10781.8596849</t>
-  </si>
-  <si>
-    <t>11346.9970814</t>
-  </si>
-  <si>
-    <t>11484.2156116</t>
-  </si>
-  <si>
-    <t>12228.5883782</t>
+    <t>48436</t>
+  </si>
+  <si>
+    <t>48653</t>
+  </si>
+  <si>
+    <t>47990</t>
+  </si>
+  <si>
+    <t>49284</t>
+  </si>
+  <si>
+    <t>51490</t>
+  </si>
+  <si>
+    <t>49632</t>
+  </si>
+  <si>
+    <t>50628</t>
+  </si>
+  <si>
+    <t>49973</t>
+  </si>
+  <si>
+    <t>50042</t>
+  </si>
+  <si>
+    <t>52436</t>
+  </si>
+  <si>
+    <t>52299</t>
+  </si>
+  <si>
+    <t>48516</t>
+  </si>
+  <si>
+    <t>46304</t>
+  </si>
+  <si>
+    <t>44912</t>
+  </si>
+  <si>
+    <t>42186</t>
+  </si>
+  <si>
+    <t>41101</t>
+  </si>
+  <si>
+    <t>50660</t>
+  </si>
+  <si>
+    <t>55566</t>
+  </si>
+  <si>
+    <t>58010</t>
+  </si>
+  <si>
+    <t>56236</t>
+  </si>
+  <si>
+    <t>51921</t>
+  </si>
+  <si>
+    <t>59731</t>
+  </si>
+  <si>
+    <t>62416</t>
+  </si>
+  <si>
+    <t>68407</t>
+  </si>
+  <si>
+    <t>57594</t>
+  </si>
+  <si>
+    <t>54866</t>
+  </si>
+  <si>
+    <t>55169</t>
+  </si>
+  <si>
+    <t>45999</t>
+  </si>
+  <si>
+    <t>47072</t>
+  </si>
+  <si>
+    <t>45806</t>
+  </si>
+  <si>
+    <t>45860</t>
+  </si>
+  <si>
+    <t>37307</t>
+  </si>
+  <si>
+    <t>29046</t>
+  </si>
+  <si>
+    <t>23146</t>
+  </si>
+  <si>
+    <t>20354</t>
+  </si>
+  <si>
+    <t>16558</t>
+  </si>
+  <si>
+    <t>12881</t>
+  </si>
+  <si>
+    <t>12819</t>
+  </si>
+  <si>
+    <t>12492</t>
+  </si>
+  <si>
+    <t>12137</t>
+  </si>
+  <si>
+    <t>11705</t>
+  </si>
+  <si>
+    <t>12417.6427075336</t>
+  </si>
+  <si>
+    <t>15042.1231591104</t>
+  </si>
+  <si>
+    <t>16221.0455709903</t>
+  </si>
+  <si>
+    <t>17955.3148177473</t>
+  </si>
+  <si>
+    <t>19959.7030599908</t>
+  </si>
+  <si>
+    <t>22395.2638874842</t>
+  </si>
+  <si>
+    <t>30989.1497275617</t>
+  </si>
+  <si>
+    <t>36448.0565388444</t>
+  </si>
+  <si>
+    <t>40135.174729466</t>
+  </si>
+  <si>
+    <t>45788.122704193</t>
+  </si>
+  <si>
+    <t>50525.7058393558</t>
+  </si>
+  <si>
+    <t>57541.103389298</t>
+  </si>
+  <si>
+    <t>62234.2138242042</t>
+  </si>
+  <si>
+    <t>74372.9325180593</t>
+  </si>
+  <si>
+    <t>76808.4200141651</t>
+  </si>
+  <si>
+    <t>90120.917983189</t>
+  </si>
+  <si>
+    <t>97912.6904920719</t>
+  </si>
+  <si>
+    <t>107402.056105853</t>
+  </si>
+  <si>
+    <t>115283.416602271</t>
+  </si>
+  <si>
+    <t>134802.78185179</t>
+  </si>
+  <si>
+    <t>155533</t>
+  </si>
+  <si>
+    <t>153922</t>
+  </si>
+  <si>
+    <t>154159</t>
+  </si>
+  <si>
+    <t>155069</t>
+  </si>
+  <si>
+    <t>156029</t>
+  </si>
+  <si>
+    <t>156299</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
